--- a/GanttChart.xlsx
+++ b/GanttChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65100ea6535e422c/桌面/2810ICT-Group-69/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yazda\2810ICT-Group-69\2810ICT-Group-69\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{ABA34D07-D106-46FC-9DA5-0055D119481F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D89BA3D-EF45-4C78-BF3B-9D19FD3ED020}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1279DC5C-C763-4100-9B1E-57EA720B41D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E9EB1359-B8FD-4DF1-AFFD-9C20BBC88A07}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E9EB1359-B8FD-4DF1-AFFD-9C20BBC88A07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Task</t>
   </si>
@@ -109,17 +109,53 @@
   <si>
     <t xml:space="preserve"> Identify Scope of the project</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update Plan Project/Gantt Chart</t>
+  </si>
+  <si>
+    <t>Update Software Design Document</t>
+  </si>
+  <si>
+    <t>Develop Testing Plan</t>
+  </si>
+  <si>
+    <t>Develop Unit Tests</t>
+  </si>
+  <si>
+    <t>Describe Coverage Test Results</t>
+  </si>
+  <si>
+    <t>Program the Application</t>
+  </si>
+  <si>
+    <t>Employ Python</t>
+  </si>
+  <si>
+    <t>Empty Data Analysis Program</t>
+  </si>
+  <si>
+    <t>Summarize Analysis</t>
+  </si>
+  <si>
+    <t>Describe Results</t>
+  </si>
+  <si>
+    <t>Using Version Control</t>
+  </si>
+  <si>
+    <t>Task 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -127,13 +163,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -159,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -170,12 +206,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -215,10 +260,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37820822397200349"/>
-          <c:y val="5.8714275298920968E-2"/>
-          <c:w val="0.55555045795427338"/>
-          <c:h val="0.8416746864975212"/>
+          <c:x val="8.809711286089239E-2"/>
+          <c:y val="0.13478601633129189"/>
+          <c:w val="0.81825021872265968"/>
+          <c:h val="0.72077755905511809"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -249,9 +294,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v> Identify Scope of the project</c:v>
                 </c:pt>
@@ -310,6 +355,42 @@
                   <c:v>Using Version control</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>Task 2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Update Plan Project/Gantt Chart</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Update Software Design Document</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Develop Testing Plan</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Develop Unit Tests</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Describe Coverage Test Results</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Program the Application</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Employ Python</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Empty Data Analysis Program</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Summarize Analysis</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Describe Results</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Using Version Control</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>Employ GIT and GitHub</c:v>
                 </c:pt>
               </c:strCache>
@@ -317,10 +398,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$B$2:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>45109</c:v>
                 </c:pt>
@@ -378,7 +459,40 @@
                 <c:pt idx="18">
                   <c:v>45160</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
+                  <c:v>45184</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45186</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45191</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45194</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45202</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45203</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45204</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45205</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45206</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>45109</c:v>
                 </c:pt>
               </c:numCache>
@@ -386,7 +500,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB78-416E-AFDC-62FBF5C9B4D7}"/>
+              <c16:uniqueId val="{00000000-79B6-420C-9175-ACCA35967EDD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -416,9 +530,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v> Identify Scope of the project</c:v>
                 </c:pt>
@@ -477,6 +591,42 @@
                   <c:v>Using Version control</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>Task 2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Update Plan Project/Gantt Chart</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Update Software Design Document</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Develop Testing Plan</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Develop Unit Tests</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Describe Coverage Test Results</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Program the Application</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Employ Python</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Empty Data Analysis Program</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Summarize Analysis</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Describe Results</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Using Version Control</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>Employ GIT and GitHub</c:v>
                 </c:pt>
               </c:strCache>
@@ -484,10 +634,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$21</c:f>
+              <c:f>Sheet1!$D$2:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -545,15 +695,48 @@
                 <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>52</c:v>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FB78-416E-AFDC-62FBF5C9B4D7}"/>
+              <c16:uniqueId val="{00000001-79B6-420C-9175-ACCA35967EDD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -567,11 +750,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="66688608"/>
-        <c:axId val="69054928"/>
+        <c:axId val="505200560"/>
+        <c:axId val="648718256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66688608"/>
+        <c:axId val="505200560"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -611,10 +794,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69054928"/>
+        <c:crossAx val="648718256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -622,10 +805,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69054928"/>
+        <c:axId val="648718256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="45161"/>
+          <c:max val="45207"/>
           <c:min val="45109"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -672,17 +855,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66688608"/>
+        <c:crossAx val="505200560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -722,7 +903,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1283,22 +1464,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:colOff>495934</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>13653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>132079</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D861E952-13F4-B9E2-379D-ED93C8D25215}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847A892E-170C-9137-1574-9ED3F8227365}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,23 +1797,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656A6D41-DA54-4E4F-86B0-29CFB874266D}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.296875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.8984375" style="2"/>
-    <col min="7" max="7" width="9.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.8984375" style="2"/>
+    <col min="1" max="1" width="30.33203125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="5" max="6" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1648,304 +1830,482 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>45109</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>45111</v>
       </c>
       <c r="D2" s="2">
+        <f>C2-B2</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>45111</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>45114</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>45114</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>45117</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>45117</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>45118</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>45118</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>45120</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>45120</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>45123</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>45123</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>45126</v>
       </c>
       <c r="D8" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>45126</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>45128</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>45128</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>45129</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>45129</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>45134</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>45134</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>45137</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>45137</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>45138</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>45138</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>45141</v>
       </c>
       <c r="D14" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>45141</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>45145</v>
       </c>
       <c r="D15" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>45145</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>45147</v>
       </c>
       <c r="D16" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>45147</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>45151</v>
       </c>
       <c r="D17" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>45151</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>45154</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>45154</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>45160</v>
       </c>
       <c r="D19" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>45160</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>45161</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:14">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="4">
+        <v>45184</v>
+      </c>
+      <c r="C22" s="5">
+        <v>45186</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4">
+        <v>45186</v>
+      </c>
+      <c r="C23" s="5">
+        <v>45191</v>
+      </c>
+      <c r="D23" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="4">
+        <v>45191</v>
+      </c>
+      <c r="C24" s="5">
+        <v>45194</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="4">
+        <v>45194</v>
+      </c>
+      <c r="C25" s="6">
+        <v>45197</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="6">
+        <v>45197</v>
+      </c>
+      <c r="C26" s="6">
+        <v>45200</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="9">
+        <v>45200</v>
+      </c>
+      <c r="C27" s="8">
+        <v>45202</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="6">
+        <v>45202</v>
+      </c>
+      <c r="C28" s="6">
+        <v>45203</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="6">
+        <v>45203</v>
+      </c>
+      <c r="C29" s="6">
+        <v>45204</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="6">
+        <v>45204</v>
+      </c>
+      <c r="C30" s="6">
+        <v>45205</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="6">
+        <v>45205</v>
+      </c>
+      <c r="C31" s="6">
+        <v>45206</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="6">
+        <v>45206</v>
+      </c>
+      <c r="C32" s="6">
+        <v>45207</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B33" s="6">
         <v>45109</v>
       </c>
-      <c r="C21" s="6">
-        <v>45161</v>
-      </c>
-      <c r="D21" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25"/>
-      <c r="B25"/>
+      <c r="C33" s="6">
+        <v>45207</v>
+      </c>
+      <c r="D33" s="2">
+        <f>C33-B33</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="V48" s="2">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
